--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -1,143 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>Registration No.</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Date of Registration</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Father Name</t>
-  </si>
-  <si>
-    <t>Mother Name</t>
-  </si>
-  <si>
-    <t>Father's Occupation</t>
-  </si>
-  <si>
-    <t>Mother's Occupation</t>
-  </si>
-  <si>
-    <t>lighfb</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>shdbfvh</t>
-  </si>
-  <si>
-    <t>12/06/2023</t>
-  </si>
-  <si>
-    <t>kduhfvb</t>
-  </si>
-  <si>
-    <t>hdfb</t>
-  </si>
-  <si>
-    <t>lhbfv</t>
-  </si>
-  <si>
-    <t>ijfvb</t>
-  </si>
-  <si>
-    <t>oishbfv</t>
-  </si>
-  <si>
-    <t>liabhd</t>
-  </si>
-  <si>
-    <t>usfevgu</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suhbfvgu </t>
-  </si>
-  <si>
-    <t>khbrf</t>
-  </si>
-  <si>
-    <t>irbfhvb</t>
-  </si>
-  <si>
-    <t>irfbvyhb</t>
-  </si>
-  <si>
-    <t>uwbyrfv</t>
-  </si>
-  <si>
-    <t>uhbfv</t>
-  </si>
-  <si>
-    <t>hbrfv</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -160,36 +56,98 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -477,144 +435,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col width="13.71928571428571" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="11.29071428571429" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="14.71928571428571" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
+    <col width="18.86214285714286" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
+    <col width="18.14785714285714" bestFit="1" customWidth="1" style="5" min="11" max="11"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Registration No.</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>Date of Registration</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>Religion</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>Skill</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>Father Name</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>Mother Name</t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="inlineStr">
+        <is>
+          <t>Father's Occupation</t>
+        </is>
+      </c>
+      <c r="L1" s="5" t="inlineStr">
+        <is>
+          <t>Mother's Occupation</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="2" ht="19.5" customHeight="1"/>
+    <row r="3" ht="19.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
